--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Hgf</t>
+  </si>
+  <si>
+    <t>Sdc2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Hgf</t>
-  </si>
-  <si>
-    <t>Sdc2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.928568666666667</v>
+        <v>8.583520999999999</v>
       </c>
       <c r="H2">
-        <v>17.785706</v>
+        <v>25.750563</v>
       </c>
       <c r="I2">
-        <v>0.3809768389628237</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="J2">
-        <v>0.3809768389628236</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q2">
-        <v>4.18908907226511</v>
+        <v>9.585174983094999</v>
       </c>
       <c r="R2">
-        <v>37.701801650386</v>
+        <v>86.266574847855</v>
       </c>
       <c r="S2">
-        <v>0.001976448262921344</v>
+        <v>0.00728372119975525</v>
       </c>
       <c r="T2">
-        <v>0.001976448262921344</v>
+        <v>0.007283721199755252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.928568666666667</v>
+        <v>8.583520999999999</v>
       </c>
       <c r="H3">
-        <v>17.785706</v>
+        <v>25.750563</v>
       </c>
       <c r="I3">
-        <v>0.3809768389628237</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="J3">
-        <v>0.3809768389628236</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q3">
-        <v>663.5965875211244</v>
+        <v>960.7707297954732</v>
       </c>
       <c r="R3">
-        <v>5972.36928769012</v>
+        <v>8646.936568159259</v>
       </c>
       <c r="S3">
-        <v>0.3130905788970186</v>
+        <v>0.7300843380593145</v>
       </c>
       <c r="T3">
-        <v>0.3130905788970186</v>
+        <v>0.7300843380593145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.928568666666667</v>
+        <v>8.583520999999999</v>
       </c>
       <c r="H4">
-        <v>17.785706</v>
+        <v>25.750563</v>
       </c>
       <c r="I4">
-        <v>0.3809768389628237</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="J4">
-        <v>0.3809768389628236</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q4">
-        <v>139.6960788492433</v>
+        <v>202.255264944805</v>
       </c>
       <c r="R4">
-        <v>1257.26470964319</v>
+        <v>1820.297384503245</v>
       </c>
       <c r="S4">
-        <v>0.0659098118028837</v>
+        <v>0.1536926517918312</v>
       </c>
       <c r="T4">
-        <v>0.0659098118028837</v>
+        <v>0.1536926517918312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.583520999999999</v>
+        <v>1.049404</v>
       </c>
       <c r="H5">
-        <v>25.750563</v>
+        <v>3.148212</v>
       </c>
       <c r="I5">
-        <v>0.5515872180307627</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="J5">
-        <v>0.5515872180307626</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N5">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q5">
-        <v>6.065061576300332</v>
+        <v>1.17186419978</v>
       </c>
       <c r="R5">
-        <v>54.58555418670299</v>
+        <v>10.54677779802</v>
       </c>
       <c r="S5">
-        <v>0.002861548229268865</v>
+        <v>0.0008904930927422395</v>
       </c>
       <c r="T5">
-        <v>0.002861548229268865</v>
+        <v>0.0008904930927422397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.583520999999999</v>
+        <v>1.049404</v>
       </c>
       <c r="H6">
-        <v>25.750563</v>
+        <v>3.148212</v>
       </c>
       <c r="I6">
-        <v>0.5515872180307627</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="J6">
-        <v>0.5515872180307626</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q6">
-        <v>960.7707297954732</v>
+        <v>117.4618955240267</v>
       </c>
       <c r="R6">
-        <v>8646.936568159259</v>
+        <v>1057.15705971624</v>
       </c>
       <c r="S6">
-        <v>0.4532998958036384</v>
+        <v>0.08925864161068597</v>
       </c>
       <c r="T6">
-        <v>0.4532998958036384</v>
+        <v>0.08925864161068597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.583520999999999</v>
+        <v>1.049404</v>
       </c>
       <c r="H7">
-        <v>25.750563</v>
+        <v>3.148212</v>
       </c>
       <c r="I7">
-        <v>0.5515872180307627</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="J7">
-        <v>0.5515872180307626</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P7">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q7">
-        <v>202.255264944805</v>
+        <v>24.72732157982</v>
       </c>
       <c r="R7">
-        <v>1820.297384503245</v>
+        <v>222.54589421838</v>
       </c>
       <c r="S7">
-        <v>0.09542577399785536</v>
+        <v>0.01879015424567084</v>
       </c>
       <c r="T7">
-        <v>0.09542577399785535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.049404</v>
-      </c>
-      <c r="H8">
-        <v>3.148212</v>
-      </c>
-      <c r="I8">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="J8">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.7065936666666666</v>
-      </c>
-      <c r="N8">
-        <v>2.119781</v>
-      </c>
-      <c r="O8">
-        <v>0.005187843618793344</v>
-      </c>
-      <c r="P8">
-        <v>0.005187843618793344</v>
-      </c>
-      <c r="Q8">
-        <v>0.7415022201746664</v>
-      </c>
-      <c r="R8">
-        <v>6.673519981571999</v>
-      </c>
-      <c r="S8">
-        <v>0.0003498471266031345</v>
-      </c>
-      <c r="T8">
-        <v>0.0003498471266031345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.049404</v>
-      </c>
-      <c r="H9">
-        <v>3.148212</v>
-      </c>
-      <c r="I9">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="J9">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>111.9320066666667</v>
-      </c>
-      <c r="N9">
-        <v>335.79602</v>
-      </c>
-      <c r="O9">
-        <v>0.8218100075305903</v>
-      </c>
-      <c r="P9">
-        <v>0.8218100075305903</v>
-      </c>
-      <c r="Q9">
-        <v>117.4618955240266</v>
-      </c>
-      <c r="R9">
-        <v>1057.15705971624</v>
-      </c>
-      <c r="S9">
-        <v>0.05541953282993323</v>
-      </c>
-      <c r="T9">
-        <v>0.05541953282993323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.049404</v>
-      </c>
-      <c r="H10">
-        <v>3.148212</v>
-      </c>
-      <c r="I10">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="J10">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>23.563205</v>
-      </c>
-      <c r="N10">
-        <v>70.689615</v>
-      </c>
-      <c r="O10">
-        <v>0.1730021488506163</v>
-      </c>
-      <c r="P10">
-        <v>0.1730021488506163</v>
-      </c>
-      <c r="Q10">
-        <v>24.72732157982</v>
-      </c>
-      <c r="R10">
-        <v>222.54589421838</v>
-      </c>
-      <c r="S10">
-        <v>0.01166656304987725</v>
-      </c>
-      <c r="T10">
-        <v>0.01166656304987725</v>
+        <v>0.01879015424567084</v>
       </c>
     </row>
   </sheetData>
